--- a/suppxls/Scen_UCs.xlsx
+++ b/suppxls/Scen_UCs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14BC09-C5DA-4628-AA68-2505383B4254}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C26617-AB1F-4EBC-8E79-7B325C472930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12735" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="DH_Low" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>UC - Each Region/Interperiod</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>~UC_T: 2010</t>
+  </si>
+  <si>
+    <t>UC_DH_MinPROD</t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB890AEA-F77E-48D6-B975-0A94334584B5}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,12 +997,6 @@
       <c r="M6" s="26">
         <v>-0.1</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>15</v>
-      </c>
       <c r="P6" t="s">
         <v>55</v>
       </c>
@@ -1025,6 +1022,17 @@
       </c>
       <c r="L7" s="26">
         <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/suppxls/Scen_UCs.xlsx
+++ b/suppxls/Scen_UCs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C26617-AB1F-4EBC-8E79-7B325C472930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D956AD-C5EA-4701-8B8C-0588FC866B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12735" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="DH_Low" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>UC - Each Region/Interperiod</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>~UC_T: 2010</t>
-  </si>
-  <si>
-    <t>UC_DH_MinPROD</t>
   </si>
 </sst>
 </file>
@@ -885,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB890AEA-F77E-48D6-B975-0A94334584B5}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,6 +994,12 @@
       <c r="M6" s="26">
         <v>-0.1</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
       <c r="P6" t="s">
         <v>55</v>
       </c>
@@ -1022,17 +1025,6 @@
       </c>
       <c r="L7" s="26">
         <v>-0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/suppxls/Scen_UCs.xlsx
+++ b/suppxls/Scen_UCs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D956AD-C5EA-4701-8B8C-0588FC866B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA18D21-11E6-450E-96BC-D36A68437135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="DH_Low" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>UC - Each Region/Interperiod</t>
   </si>
@@ -167,9 +167,6 @@
     <t>~UC_Sets: T_E:</t>
   </si>
   <si>
-    <t>~UC_T: UC_RHSRT~UP</t>
-  </si>
-  <si>
     <t>PSET_CI</t>
   </si>
   <si>
@@ -237,6 +234,51 @@
   </si>
   <si>
     <t>~UC_T: 2010</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_S: AllRegions</t>
+  </si>
+  <si>
+    <t>~UC_T: UC_RHST~UP</t>
+  </si>
+  <si>
+    <t>UC_ELC-Nuc_BuildRate</t>
+  </si>
+  <si>
+    <t>Max Nuclear capacity installed per year</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>cset_cn</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>*build*</t>
+  </si>
+  <si>
+    <t>FLO_BND</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -884,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB890AEA-F77E-48D6-B975-0A94334584B5}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -901,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -916,7 +958,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -936,10 +978,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>10</v>
@@ -948,13 +990,13 @@
         <v>11</v>
       </c>
       <c r="K5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>14</v>
@@ -963,21 +1005,21 @@
         <v>15</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
       </c>
       <c r="I6">
         <v>2020</v>
@@ -1001,18 +1043,18 @@
         <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
       </c>
       <c r="I7">
         <v>2050</v>
@@ -1035,48 +1077,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503FF635-060F-4CF5-AF34-FA7B97DBBBE9}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>2006</v>
@@ -1097,77 +1141,144 @@
         <v>0</v>
       </c>
       <c r="L5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="18">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18">
+        <v>7</v>
+      </c>
+      <c r="I6" s="18">
         <v>10</v>
       </c>
-      <c r="H6" s="18">
-        <v>15</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="J6" s="18">
         <v>20</v>
-      </c>
-      <c r="J6" s="18">
-        <v>30</v>
       </c>
       <c r="K6" s="18">
         <v>5</v>
       </c>
       <c r="L6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I7" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J7" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7" s="18">
         <v>5</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>3</v>
+      </c>
+      <c r="K8" s="18">
+        <v>5</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1292,7 @@
   <dimension ref="A2:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1336,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
